--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/50/Output_26_39.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/50/Output_26_39.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>16313.05411812717</v>
+        <v>3246297.769507308</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>16313.05411812717</v>
+        <v>3246297.769507308</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>50206.55185047692</v>
+        <v>3093770.977476785</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>50206.55185047692</v>
+        <v>3093770.977476785</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1190703961.047635</v>
+        <v>47881960.91369741</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>12802.22367557373</v>
+        <v>1306523.801737404</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>23322.93469118708</v>
+        <v>2225208.123052533</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>33849.03615577558</v>
+        <v>3143892.444367663</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>44984.54702597758</v>
+        <v>4061194.140200713</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>56120.4350696591</v>
+        <v>4978570.893556193</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>67256.32311334062</v>
+        <v>5895947.646911669</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>78392.21115702215</v>
+        <v>6813324.400267146</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>89528.09920070371</v>
+        <v>7730701.153622621</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>100716.8362093794</v>
+        <v>8631093.809803611</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>111931.0604878748</v>
+        <v>9536558.432678724</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>123145.2847663702</v>
+        <v>10442023.05555384</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>134359.5090448656</v>
+        <v>11347487.67842896</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>145573.733323361</v>
+        <v>12252952.30130408</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>156787.9576018564</v>
+        <v>13158416.9241792</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>168002.1818803517</v>
+        <v>14063881.54705433</v>
       </c>
     </row>
   </sheetData>
@@ -27037,28 +27037,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E2" t="n">
         <v>217</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J2" t="n">
         <v>207</v>
@@ -27089,49 +27089,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="4">
@@ -27144,19 +27144,19 @@
         <v>1111</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
